--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_220.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_220.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32240-d76529-Reviews-Doubletree_by_Hilton_Hotel_Los_Angeles_Commerce-Commerce_California.html</t>
+  </si>
+  <si>
+    <t>967</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1074</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-DoubleTree-By-Hilton-Los-Angeles-Commerce.h26989.Hotel-Information?chkin=6%2F21%2F2018&amp;chkout=6%2F22%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1528304024442&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=8efde331-b2ae-4ca6-a019-381adc035c12&amp;mctc=9&amp;exp_dp=177.34&amp;exp_ts=1528304025771&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_220.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_220.xlsx
@@ -13085,7 +13085,7 @@
         <v>21495</v>
       </c>
       <c r="B2" t="n">
-        <v>140319</v>
+        <v>171462</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -13156,7 +13156,7 @@
         <v>21495</v>
       </c>
       <c r="B3" t="n">
-        <v>140320</v>
+        <v>171463</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
@@ -13288,7 +13288,7 @@
         <v>21495</v>
       </c>
       <c r="B5" t="n">
-        <v>140321</v>
+        <v>171464</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -13359,7 +13359,7 @@
         <v>21495</v>
       </c>
       <c r="B6" t="n">
-        <v>140322</v>
+        <v>171465</v>
       </c>
       <c r="C6" t="s">
         <v>76</v>
@@ -13420,7 +13420,7 @@
         <v>21495</v>
       </c>
       <c r="B7" t="n">
-        <v>140323</v>
+        <v>171466</v>
       </c>
       <c r="C7" t="s">
         <v>82</v>
@@ -13625,7 +13625,7 @@
         <v>21495</v>
       </c>
       <c r="B10" t="n">
-        <v>140324</v>
+        <v>171467</v>
       </c>
       <c r="C10" t="s">
         <v>103</v>
@@ -13696,7 +13696,7 @@
         <v>21495</v>
       </c>
       <c r="B11" t="n">
-        <v>140325</v>
+        <v>171468</v>
       </c>
       <c r="C11" t="s">
         <v>109</v>
@@ -13771,7 +13771,7 @@
         <v>21495</v>
       </c>
       <c r="B12" t="n">
-        <v>140326</v>
+        <v>171469</v>
       </c>
       <c r="C12" t="s">
         <v>118</v>
@@ -13836,7 +13836,7 @@
         <v>21495</v>
       </c>
       <c r="B13" t="n">
-        <v>140327</v>
+        <v>171470</v>
       </c>
       <c r="C13" t="s">
         <v>128</v>
@@ -13901,7 +13901,7 @@
         <v>21495</v>
       </c>
       <c r="B14" t="n">
-        <v>140328</v>
+        <v>171471</v>
       </c>
       <c r="C14" t="s">
         <v>135</v>
@@ -13976,7 +13976,7 @@
         <v>21495</v>
       </c>
       <c r="B15" t="n">
-        <v>140329</v>
+        <v>171472</v>
       </c>
       <c r="C15" t="s">
         <v>143</v>
@@ -14047,7 +14047,7 @@
         <v>21495</v>
       </c>
       <c r="B16" t="n">
-        <v>140330</v>
+        <v>171473</v>
       </c>
       <c r="C16" t="s">
         <v>151</v>
@@ -14122,7 +14122,7 @@
         <v>21495</v>
       </c>
       <c r="B17" t="n">
-        <v>140331</v>
+        <v>171474</v>
       </c>
       <c r="C17" t="s">
         <v>158</v>
@@ -14315,7 +14315,7 @@
         <v>21495</v>
       </c>
       <c r="B20" t="n">
-        <v>140332</v>
+        <v>171475</v>
       </c>
       <c r="C20" t="s">
         <v>177</v>
@@ -14457,7 +14457,7 @@
         <v>21495</v>
       </c>
       <c r="B22" t="n">
-        <v>140333</v>
+        <v>171476</v>
       </c>
       <c r="C22" t="s">
         <v>189</v>
@@ -14532,7 +14532,7 @@
         <v>21495</v>
       </c>
       <c r="B23" t="n">
-        <v>140334</v>
+        <v>171477</v>
       </c>
       <c r="C23" t="s">
         <v>198</v>
@@ -14607,7 +14607,7 @@
         <v>21495</v>
       </c>
       <c r="B24" t="n">
-        <v>140335</v>
+        <v>171478</v>
       </c>
       <c r="C24" t="s">
         <v>205</v>
@@ -14676,7 +14676,7 @@
         <v>21495</v>
       </c>
       <c r="B25" t="n">
-        <v>140336</v>
+        <v>171479</v>
       </c>
       <c r="C25" t="s">
         <v>211</v>
@@ -14737,7 +14737,7 @@
         <v>21495</v>
       </c>
       <c r="B26" t="n">
-        <v>140337</v>
+        <v>171480</v>
       </c>
       <c r="C26" t="s">
         <v>218</v>
@@ -14812,7 +14812,7 @@
         <v>21495</v>
       </c>
       <c r="B27" t="n">
-        <v>140338</v>
+        <v>171481</v>
       </c>
       <c r="C27" t="s">
         <v>225</v>
@@ -15027,7 +15027,7 @@
         <v>21495</v>
       </c>
       <c r="B30" t="n">
-        <v>140339</v>
+        <v>171482</v>
       </c>
       <c r="C30" t="s">
         <v>252</v>
@@ -15102,7 +15102,7 @@
         <v>21495</v>
       </c>
       <c r="B31" t="n">
-        <v>140340</v>
+        <v>171483</v>
       </c>
       <c r="C31" t="s">
         <v>259</v>
@@ -15313,7 +15313,7 @@
         <v>21495</v>
       </c>
       <c r="B34" t="n">
-        <v>140341</v>
+        <v>171484</v>
       </c>
       <c r="C34" t="s">
         <v>279</v>
@@ -15384,7 +15384,7 @@
         <v>21495</v>
       </c>
       <c r="B35" t="n">
-        <v>140342</v>
+        <v>171485</v>
       </c>
       <c r="C35" t="s">
         <v>284</v>
@@ -15522,7 +15522,7 @@
         <v>21495</v>
       </c>
       <c r="B37" t="n">
-        <v>140343</v>
+        <v>171486</v>
       </c>
       <c r="C37" t="s">
         <v>296</v>
@@ -15658,7 +15658,7 @@
         <v>21495</v>
       </c>
       <c r="B39" t="n">
-        <v>140344</v>
+        <v>171487</v>
       </c>
       <c r="C39" t="s">
         <v>311</v>
@@ -15733,7 +15733,7 @@
         <v>21495</v>
       </c>
       <c r="B40" t="n">
-        <v>140345</v>
+        <v>171488</v>
       </c>
       <c r="C40" t="s">
         <v>319</v>
@@ -15808,7 +15808,7 @@
         <v>21495</v>
       </c>
       <c r="B41" t="n">
-        <v>140346</v>
+        <v>171489</v>
       </c>
       <c r="C41" t="s">
         <v>326</v>
@@ -15883,7 +15883,7 @@
         <v>21495</v>
       </c>
       <c r="B42" t="n">
-        <v>140347</v>
+        <v>171490</v>
       </c>
       <c r="C42" t="s">
         <v>333</v>
@@ -16179,7 +16179,7 @@
         <v>21495</v>
       </c>
       <c r="B46" t="n">
-        <v>140348</v>
+        <v>171491</v>
       </c>
       <c r="C46" t="s">
         <v>362</v>
@@ -16254,7 +16254,7 @@
         <v>21495</v>
       </c>
       <c r="B47" t="n">
-        <v>140349</v>
+        <v>171492</v>
       </c>
       <c r="C47" t="s">
         <v>371</v>
@@ -16329,7 +16329,7 @@
         <v>21495</v>
       </c>
       <c r="B48" t="n">
-        <v>140350</v>
+        <v>171493</v>
       </c>
       <c r="C48" t="s">
         <v>379</v>
@@ -16400,7 +16400,7 @@
         <v>21495</v>
       </c>
       <c r="B49" t="n">
-        <v>140351</v>
+        <v>171494</v>
       </c>
       <c r="C49" t="s">
         <v>384</v>
@@ -16475,7 +16475,7 @@
         <v>21495</v>
       </c>
       <c r="B50" t="n">
-        <v>140352</v>
+        <v>171495</v>
       </c>
       <c r="C50" t="s">
         <v>390</v>
@@ -16550,7 +16550,7 @@
         <v>21495</v>
       </c>
       <c r="B51" t="n">
-        <v>140353</v>
+        <v>171496</v>
       </c>
       <c r="C51" t="s">
         <v>397</v>
@@ -16621,7 +16621,7 @@
         <v>21495</v>
       </c>
       <c r="B52" t="n">
-        <v>140354</v>
+        <v>171497</v>
       </c>
       <c r="C52" t="s">
         <v>404</v>
@@ -16696,7 +16696,7 @@
         <v>21495</v>
       </c>
       <c r="B53" t="n">
-        <v>140355</v>
+        <v>140421</v>
       </c>
       <c r="C53" t="s">
         <v>411</v>
@@ -16763,7 +16763,7 @@
         <v>21495</v>
       </c>
       <c r="B54" t="n">
-        <v>140356</v>
+        <v>171498</v>
       </c>
       <c r="C54" t="s">
         <v>418</v>
@@ -16834,7 +16834,7 @@
         <v>21495</v>
       </c>
       <c r="B55" t="n">
-        <v>140357</v>
+        <v>141053</v>
       </c>
       <c r="C55" t="s">
         <v>424</v>
@@ -16905,7 +16905,7 @@
         <v>21495</v>
       </c>
       <c r="B56" t="n">
-        <v>140358</v>
+        <v>171499</v>
       </c>
       <c r="C56" t="s">
         <v>430</v>
@@ -17043,7 +17043,7 @@
         <v>21495</v>
       </c>
       <c r="B58" t="n">
-        <v>140359</v>
+        <v>171500</v>
       </c>
       <c r="C58" t="s">
         <v>442</v>
@@ -17114,7 +17114,7 @@
         <v>21495</v>
       </c>
       <c r="B59" t="n">
-        <v>140360</v>
+        <v>171501</v>
       </c>
       <c r="C59" t="s">
         <v>448</v>
@@ -17183,7 +17183,7 @@
         <v>21495</v>
       </c>
       <c r="B60" t="n">
-        <v>140361</v>
+        <v>171502</v>
       </c>
       <c r="C60" t="s">
         <v>454</v>
@@ -17254,7 +17254,7 @@
         <v>21495</v>
       </c>
       <c r="B61" t="n">
-        <v>140362</v>
+        <v>171503</v>
       </c>
       <c r="C61" t="s">
         <v>459</v>
@@ -17386,7 +17386,7 @@
         <v>21495</v>
       </c>
       <c r="B63" t="n">
-        <v>140363</v>
+        <v>171504</v>
       </c>
       <c r="C63" t="s">
         <v>471</v>
@@ -17457,7 +17457,7 @@
         <v>21495</v>
       </c>
       <c r="B64" t="n">
-        <v>140364</v>
+        <v>171505</v>
       </c>
       <c r="C64" t="s">
         <v>477</v>
@@ -17514,7 +17514,7 @@
         <v>21495</v>
       </c>
       <c r="B65" t="n">
-        <v>140365</v>
+        <v>171506</v>
       </c>
       <c r="C65" t="s">
         <v>483</v>
@@ -17581,7 +17581,7 @@
         <v>21495</v>
       </c>
       <c r="B66" t="n">
-        <v>140366</v>
+        <v>171507</v>
       </c>
       <c r="C66" t="s">
         <v>490</v>
@@ -17656,7 +17656,7 @@
         <v>21495</v>
       </c>
       <c r="B67" t="n">
-        <v>140367</v>
+        <v>171508</v>
       </c>
       <c r="C67" t="s">
         <v>499</v>
@@ -17713,7 +17713,7 @@
         <v>21495</v>
       </c>
       <c r="B68" t="n">
-        <v>140368</v>
+        <v>171509</v>
       </c>
       <c r="C68" t="s">
         <v>506</v>
@@ -17784,7 +17784,7 @@
         <v>21495</v>
       </c>
       <c r="B69" t="n">
-        <v>140369</v>
+        <v>171510</v>
       </c>
       <c r="C69" t="s">
         <v>512</v>
@@ -17851,7 +17851,7 @@
         <v>21495</v>
       </c>
       <c r="B70" t="n">
-        <v>140370</v>
+        <v>171511</v>
       </c>
       <c r="C70" t="s">
         <v>519</v>
@@ -17922,7 +17922,7 @@
         <v>21495</v>
       </c>
       <c r="B71" t="n">
-        <v>140371</v>
+        <v>171512</v>
       </c>
       <c r="C71" t="s">
         <v>525</v>
@@ -17993,7 +17993,7 @@
         <v>21495</v>
       </c>
       <c r="B72" t="n">
-        <v>140372</v>
+        <v>171513</v>
       </c>
       <c r="C72" t="s">
         <v>531</v>
@@ -18064,7 +18064,7 @@
         <v>21495</v>
       </c>
       <c r="B73" t="n">
-        <v>140373</v>
+        <v>171514</v>
       </c>
       <c r="C73" t="s">
         <v>538</v>
@@ -18135,7 +18135,7 @@
         <v>21495</v>
       </c>
       <c r="B74" t="n">
-        <v>140374</v>
+        <v>171515</v>
       </c>
       <c r="C74" t="s">
         <v>543</v>
@@ -18267,7 +18267,7 @@
         <v>21495</v>
       </c>
       <c r="B76" t="n">
-        <v>140375</v>
+        <v>171516</v>
       </c>
       <c r="C76" t="s">
         <v>555</v>
@@ -18405,7 +18405,7 @@
         <v>21495</v>
       </c>
       <c r="B78" t="n">
-        <v>140376</v>
+        <v>171517</v>
       </c>
       <c r="C78" t="s">
         <v>567</v>
@@ -18476,7 +18476,7 @@
         <v>21495</v>
       </c>
       <c r="B79" t="n">
-        <v>140377</v>
+        <v>171518</v>
       </c>
       <c r="C79" t="s">
         <v>573</v>
@@ -18547,7 +18547,7 @@
         <v>21495</v>
       </c>
       <c r="B80" t="n">
-        <v>140378</v>
+        <v>171519</v>
       </c>
       <c r="C80" t="s">
         <v>579</v>
@@ -18618,7 +18618,7 @@
         <v>21495</v>
       </c>
       <c r="B81" t="n">
-        <v>140379</v>
+        <v>171520</v>
       </c>
       <c r="C81" t="s">
         <v>584</v>
@@ -18689,7 +18689,7 @@
         <v>21495</v>
       </c>
       <c r="B82" t="n">
-        <v>140380</v>
+        <v>171521</v>
       </c>
       <c r="C82" t="s">
         <v>590</v>
@@ -18746,7 +18746,7 @@
         <v>21495</v>
       </c>
       <c r="B83" t="n">
-        <v>140381</v>
+        <v>171522</v>
       </c>
       <c r="C83" t="s">
         <v>597</v>
@@ -18821,7 +18821,7 @@
         <v>21495</v>
       </c>
       <c r="B84" t="n">
-        <v>140382</v>
+        <v>171523</v>
       </c>
       <c r="C84" t="s">
         <v>606</v>
@@ -18963,7 +18963,7 @@
         <v>21495</v>
       </c>
       <c r="B86" t="n">
-        <v>140383</v>
+        <v>171524</v>
       </c>
       <c r="C86" t="s">
         <v>616</v>
@@ -19105,7 +19105,7 @@
         <v>21495</v>
       </c>
       <c r="B88" t="n">
-        <v>140384</v>
+        <v>171525</v>
       </c>
       <c r="C88" t="s">
         <v>628</v>
@@ -19176,7 +19176,7 @@
         <v>21495</v>
       </c>
       <c r="B89" t="n">
-        <v>140385</v>
+        <v>171526</v>
       </c>
       <c r="C89" t="s">
         <v>637</v>
@@ -19243,7 +19243,7 @@
         <v>21495</v>
       </c>
       <c r="B90" t="n">
-        <v>140386</v>
+        <v>171527</v>
       </c>
       <c r="C90" t="s">
         <v>644</v>
@@ -19314,7 +19314,7 @@
         <v>21495</v>
       </c>
       <c r="B91" t="n">
-        <v>140387</v>
+        <v>171528</v>
       </c>
       <c r="C91" t="s">
         <v>649</v>
@@ -19385,7 +19385,7 @@
         <v>21495</v>
       </c>
       <c r="B92" t="n">
-        <v>140388</v>
+        <v>171529</v>
       </c>
       <c r="C92" t="s">
         <v>655</v>
@@ -19456,7 +19456,7 @@
         <v>21495</v>
       </c>
       <c r="B93" t="n">
-        <v>140389</v>
+        <v>171530</v>
       </c>
       <c r="C93" t="s">
         <v>662</v>
@@ -19523,7 +19523,7 @@
         <v>21495</v>
       </c>
       <c r="B94" t="n">
-        <v>140390</v>
+        <v>171531</v>
       </c>
       <c r="C94" t="s">
         <v>669</v>
@@ -19659,7 +19659,7 @@
         <v>21495</v>
       </c>
       <c r="B96" t="n">
-        <v>140391</v>
+        <v>171532</v>
       </c>
       <c r="C96" t="s">
         <v>683</v>
@@ -19734,7 +19734,7 @@
         <v>21495</v>
       </c>
       <c r="B97" t="n">
-        <v>140392</v>
+        <v>171533</v>
       </c>
       <c r="C97" t="s">
         <v>690</v>
@@ -19805,7 +19805,7 @@
         <v>21495</v>
       </c>
       <c r="B98" t="n">
-        <v>140393</v>
+        <v>171534</v>
       </c>
       <c r="C98" t="s">
         <v>696</v>
@@ -19943,7 +19943,7 @@
         <v>21495</v>
       </c>
       <c r="B100" t="n">
-        <v>140394</v>
+        <v>171535</v>
       </c>
       <c r="C100" t="s">
         <v>709</v>
@@ -20140,7 +20140,7 @@
         <v>21495</v>
       </c>
       <c r="B103" t="n">
-        <v>140395</v>
+        <v>171536</v>
       </c>
       <c r="C103" t="s">
         <v>729</v>
@@ -20211,7 +20211,7 @@
         <v>21495</v>
       </c>
       <c r="B104" t="n">
-        <v>140396</v>
+        <v>171537</v>
       </c>
       <c r="C104" t="s">
         <v>735</v>
@@ -20282,7 +20282,7 @@
         <v>21495</v>
       </c>
       <c r="B105" t="n">
-        <v>140397</v>
+        <v>171538</v>
       </c>
       <c r="C105" t="s">
         <v>741</v>
@@ -20353,7 +20353,7 @@
         <v>21495</v>
       </c>
       <c r="B106" t="n">
-        <v>140398</v>
+        <v>171539</v>
       </c>
       <c r="C106" t="s">
         <v>746</v>
@@ -20424,7 +20424,7 @@
         <v>21495</v>
       </c>
       <c r="B107" t="n">
-        <v>140399</v>
+        <v>171540</v>
       </c>
       <c r="C107" t="s">
         <v>752</v>
@@ -20499,7 +20499,7 @@
         <v>21495</v>
       </c>
       <c r="B108" t="n">
-        <v>140400</v>
+        <v>171541</v>
       </c>
       <c r="C108" t="s">
         <v>761</v>
@@ -20570,7 +20570,7 @@
         <v>21495</v>
       </c>
       <c r="B109" t="n">
-        <v>140401</v>
+        <v>171542</v>
       </c>
       <c r="C109" t="s">
         <v>767</v>
@@ -20862,7 +20862,7 @@
         <v>21495</v>
       </c>
       <c r="B113" t="n">
-        <v>140402</v>
+        <v>171543</v>
       </c>
       <c r="C113" t="s">
         <v>792</v>
@@ -20937,7 +20937,7 @@
         <v>21495</v>
       </c>
       <c r="B114" t="n">
-        <v>140403</v>
+        <v>171544</v>
       </c>
       <c r="C114" t="s">
         <v>800</v>
@@ -20998,7 +20998,7 @@
         <v>21495</v>
       </c>
       <c r="B115" t="n">
-        <v>140404</v>
+        <v>171545</v>
       </c>
       <c r="C115" t="s">
         <v>806</v>
@@ -21069,7 +21069,7 @@
         <v>21495</v>
       </c>
       <c r="B116" t="n">
-        <v>140405</v>
+        <v>171546</v>
       </c>
       <c r="C116" t="s">
         <v>813</v>
@@ -21144,7 +21144,7 @@
         <v>21495</v>
       </c>
       <c r="B117" t="n">
-        <v>140406</v>
+        <v>171547</v>
       </c>
       <c r="C117" t="s">
         <v>822</v>
@@ -21215,7 +21215,7 @@
         <v>21495</v>
       </c>
       <c r="B118" t="n">
-        <v>140407</v>
+        <v>171548</v>
       </c>
       <c r="C118" t="s">
         <v>828</v>
@@ -21276,7 +21276,7 @@
         <v>21495</v>
       </c>
       <c r="B119" t="n">
-        <v>140408</v>
+        <v>171549</v>
       </c>
       <c r="C119" t="s">
         <v>834</v>
@@ -21351,7 +21351,7 @@
         <v>21495</v>
       </c>
       <c r="B120" t="n">
-        <v>140409</v>
+        <v>171550</v>
       </c>
       <c r="C120" t="s">
         <v>843</v>
@@ -21493,7 +21493,7 @@
         <v>21495</v>
       </c>
       <c r="B122" t="n">
-        <v>140410</v>
+        <v>171551</v>
       </c>
       <c r="C122" t="s">
         <v>858</v>
@@ -21564,7 +21564,7 @@
         <v>21495</v>
       </c>
       <c r="B123" t="n">
-        <v>140411</v>
+        <v>171552</v>
       </c>
       <c r="C123" t="s">
         <v>864</v>
@@ -21635,7 +21635,7 @@
         <v>21495</v>
       </c>
       <c r="B124" t="n">
-        <v>140412</v>
+        <v>171553</v>
       </c>
       <c r="C124" t="s">
         <v>873</v>
@@ -21706,7 +21706,7 @@
         <v>21495</v>
       </c>
       <c r="B125" t="n">
-        <v>140413</v>
+        <v>171554</v>
       </c>
       <c r="C125" t="s">
         <v>879</v>
@@ -21771,7 +21771,7 @@
         <v>21495</v>
       </c>
       <c r="B126" t="n">
-        <v>140414</v>
+        <v>171555</v>
       </c>
       <c r="C126" t="s">
         <v>888</v>
@@ -21846,7 +21846,7 @@
         <v>21495</v>
       </c>
       <c r="B127" t="n">
-        <v>140415</v>
+        <v>171556</v>
       </c>
       <c r="C127" t="s">
         <v>897</v>
@@ -21921,7 +21921,7 @@
         <v>21495</v>
       </c>
       <c r="B128" t="n">
-        <v>140416</v>
+        <v>171557</v>
       </c>
       <c r="C128" t="s">
         <v>904</v>
@@ -22067,7 +22067,7 @@
         <v>21495</v>
       </c>
       <c r="B130" t="n">
-        <v>140417</v>
+        <v>171558</v>
       </c>
       <c r="C130" t="s">
         <v>920</v>
@@ -22138,7 +22138,7 @@
         <v>21495</v>
       </c>
       <c r="B131" t="n">
-        <v>140418</v>
+        <v>171559</v>
       </c>
       <c r="C131" t="s">
         <v>926</v>
@@ -22199,7 +22199,7 @@
         <v>21495</v>
       </c>
       <c r="B132" t="n">
-        <v>140419</v>
+        <v>171560</v>
       </c>
       <c r="C132" t="s">
         <v>932</v>
@@ -22337,7 +22337,7 @@
         <v>21495</v>
       </c>
       <c r="B134" t="n">
-        <v>140420</v>
+        <v>171561</v>
       </c>
       <c r="C134" t="s">
         <v>944</v>
@@ -22408,7 +22408,7 @@
         <v>21495</v>
       </c>
       <c r="B135" t="n">
-        <v>140421</v>
+        <v>171562</v>
       </c>
       <c r="C135" t="s">
         <v>950</v>
@@ -22475,7 +22475,7 @@
         <v>21495</v>
       </c>
       <c r="B136" t="n">
-        <v>140422</v>
+        <v>171563</v>
       </c>
       <c r="C136" t="s">
         <v>958</v>
@@ -22542,7 +22542,7 @@
         <v>21495</v>
       </c>
       <c r="B137" t="n">
-        <v>140423</v>
+        <v>171564</v>
       </c>
       <c r="C137" t="s">
         <v>965</v>
@@ -22617,7 +22617,7 @@
         <v>21495</v>
       </c>
       <c r="B138" t="n">
-        <v>140424</v>
+        <v>171565</v>
       </c>
       <c r="C138" t="s">
         <v>974</v>
@@ -22682,7 +22682,7 @@
         <v>21495</v>
       </c>
       <c r="B139" t="n">
-        <v>140425</v>
+        <v>171566</v>
       </c>
       <c r="C139" t="s">
         <v>980</v>
@@ -22753,7 +22753,7 @@
         <v>21495</v>
       </c>
       <c r="B140" t="n">
-        <v>140426</v>
+        <v>171567</v>
       </c>
       <c r="C140" t="s">
         <v>986</v>
@@ -22824,7 +22824,7 @@
         <v>21495</v>
       </c>
       <c r="B141" t="n">
-        <v>140427</v>
+        <v>171568</v>
       </c>
       <c r="C141" t="s">
         <v>991</v>
@@ -22895,7 +22895,7 @@
         <v>21495</v>
       </c>
       <c r="B142" t="n">
-        <v>140428</v>
+        <v>171569</v>
       </c>
       <c r="C142" t="s">
         <v>996</v>
@@ -22966,7 +22966,7 @@
         <v>21495</v>
       </c>
       <c r="B143" t="n">
-        <v>140429</v>
+        <v>171570</v>
       </c>
       <c r="C143" t="s">
         <v>1002</v>
@@ -23037,7 +23037,7 @@
         <v>21495</v>
       </c>
       <c r="B144" t="n">
-        <v>140430</v>
+        <v>171571</v>
       </c>
       <c r="C144" t="s">
         <v>1008</v>
@@ -23283,7 +23283,7 @@
         <v>21495</v>
       </c>
       <c r="B148" t="n">
-        <v>140431</v>
+        <v>171572</v>
       </c>
       <c r="C148" t="s">
         <v>1030</v>
@@ -23354,7 +23354,7 @@
         <v>21495</v>
       </c>
       <c r="B149" t="n">
-        <v>140432</v>
+        <v>171573</v>
       </c>
       <c r="C149" t="s">
         <v>1036</v>
@@ -23425,7 +23425,7 @@
         <v>21495</v>
       </c>
       <c r="B150" t="n">
-        <v>140433</v>
+        <v>171574</v>
       </c>
       <c r="C150" t="s">
         <v>1042</v>
@@ -23496,7 +23496,7 @@
         <v>21495</v>
       </c>
       <c r="B151" t="n">
-        <v>140434</v>
+        <v>171575</v>
       </c>
       <c r="C151" t="s">
         <v>1047</v>
@@ -23628,7 +23628,7 @@
         <v>21495</v>
       </c>
       <c r="B153" t="n">
-        <v>140435</v>
+        <v>171576</v>
       </c>
       <c r="C153" t="s">
         <v>1060</v>
@@ -23699,7 +23699,7 @@
         <v>21495</v>
       </c>
       <c r="B154" t="n">
-        <v>140436</v>
+        <v>171577</v>
       </c>
       <c r="C154" t="s">
         <v>1066</v>
@@ -23770,7 +23770,7 @@
         <v>21495</v>
       </c>
       <c r="B155" t="n">
-        <v>140437</v>
+        <v>171578</v>
       </c>
       <c r="C155" t="s">
         <v>1072</v>
@@ -23841,7 +23841,7 @@
         <v>21495</v>
       </c>
       <c r="B156" t="n">
-        <v>140438</v>
+        <v>171579</v>
       </c>
       <c r="C156" t="s">
         <v>1078</v>
@@ -23916,7 +23916,7 @@
         <v>21495</v>
       </c>
       <c r="B157" t="n">
-        <v>140439</v>
+        <v>171580</v>
       </c>
       <c r="C157" t="s">
         <v>1086</v>
@@ -23987,7 +23987,7 @@
         <v>21495</v>
       </c>
       <c r="B158" t="n">
-        <v>140440</v>
+        <v>171581</v>
       </c>
       <c r="C158" t="s">
         <v>1093</v>
@@ -24058,7 +24058,7 @@
         <v>21495</v>
       </c>
       <c r="B159" t="n">
-        <v>140441</v>
+        <v>171582</v>
       </c>
       <c r="C159" t="s">
         <v>1099</v>
@@ -24133,7 +24133,7 @@
         <v>21495</v>
       </c>
       <c r="B160" t="n">
-        <v>140442</v>
+        <v>171583</v>
       </c>
       <c r="C160" t="s">
         <v>1107</v>
@@ -24200,7 +24200,7 @@
         <v>21495</v>
       </c>
       <c r="B161" t="n">
-        <v>140443</v>
+        <v>171584</v>
       </c>
       <c r="C161" t="s">
         <v>1113</v>
@@ -24271,7 +24271,7 @@
         <v>21495</v>
       </c>
       <c r="B162" t="n">
-        <v>140444</v>
+        <v>171585</v>
       </c>
       <c r="C162" t="s">
         <v>1119</v>
@@ -24342,7 +24342,7 @@
         <v>21495</v>
       </c>
       <c r="B163" t="n">
-        <v>140445</v>
+        <v>171586</v>
       </c>
       <c r="C163" t="s">
         <v>1125</v>
@@ -24413,7 +24413,7 @@
         <v>21495</v>
       </c>
       <c r="B164" t="n">
-        <v>140446</v>
+        <v>171587</v>
       </c>
       <c r="C164" t="s">
         <v>1130</v>
@@ -24488,7 +24488,7 @@
         <v>21495</v>
       </c>
       <c r="B165" t="n">
-        <v>140447</v>
+        <v>171588</v>
       </c>
       <c r="C165" t="s">
         <v>1139</v>
@@ -24772,7 +24772,7 @@
         <v>21495</v>
       </c>
       <c r="B169" t="n">
-        <v>140448</v>
+        <v>171589</v>
       </c>
       <c r="C169" t="s">
         <v>1164</v>
@@ -24971,7 +24971,7 @@
         <v>21495</v>
       </c>
       <c r="B172" t="n">
-        <v>140449</v>
+        <v>171590</v>
       </c>
       <c r="C172" t="s">
         <v>1184</v>
@@ -25109,7 +25109,7 @@
         <v>21495</v>
       </c>
       <c r="B174" t="n">
-        <v>140450</v>
+        <v>171591</v>
       </c>
       <c r="C174" t="s">
         <v>1197</v>
@@ -25180,7 +25180,7 @@
         <v>21495</v>
       </c>
       <c r="B175" t="n">
-        <v>140451</v>
+        <v>171592</v>
       </c>
       <c r="C175" t="s">
         <v>1203</v>
@@ -25251,7 +25251,7 @@
         <v>21495</v>
       </c>
       <c r="B176" t="n">
-        <v>140452</v>
+        <v>171593</v>
       </c>
       <c r="C176" t="s">
         <v>1209</v>
@@ -25318,7 +25318,7 @@
         <v>21495</v>
       </c>
       <c r="B177" t="n">
-        <v>140453</v>
+        <v>171594</v>
       </c>
       <c r="C177" t="s">
         <v>1215</v>
@@ -25454,7 +25454,7 @@
         <v>21495</v>
       </c>
       <c r="B179" t="n">
-        <v>140454</v>
+        <v>171595</v>
       </c>
       <c r="C179" t="s">
         <v>1227</v>
@@ -25525,7 +25525,7 @@
         <v>21495</v>
       </c>
       <c r="B180" t="n">
-        <v>140455</v>
+        <v>171596</v>
       </c>
       <c r="C180" t="s">
         <v>1233</v>
@@ -25667,7 +25667,7 @@
         <v>21495</v>
       </c>
       <c r="B182" t="n">
-        <v>140456</v>
+        <v>171597</v>
       </c>
       <c r="C182" t="s">
         <v>1244</v>
@@ -25947,7 +25947,7 @@
         <v>21495</v>
       </c>
       <c r="B186" t="n">
-        <v>140457</v>
+        <v>171598</v>
       </c>
       <c r="C186" t="s">
         <v>1271</v>
@@ -26089,7 +26089,7 @@
         <v>21495</v>
       </c>
       <c r="B188" t="n">
-        <v>140458</v>
+        <v>171599</v>
       </c>
       <c r="C188" t="s">
         <v>1283</v>
@@ -26150,7 +26150,7 @@
         <v>21495</v>
       </c>
       <c r="B189" t="n">
-        <v>140459</v>
+        <v>171600</v>
       </c>
       <c r="C189" t="s">
         <v>1292</v>
@@ -26225,7 +26225,7 @@
         <v>21495</v>
       </c>
       <c r="B190" t="n">
-        <v>140460</v>
+        <v>171601</v>
       </c>
       <c r="C190" t="s">
         <v>1301</v>
@@ -26286,7 +26286,7 @@
         <v>21495</v>
       </c>
       <c r="B191" t="n">
-        <v>140461</v>
+        <v>171602</v>
       </c>
       <c r="C191" t="s">
         <v>1307</v>
@@ -26347,7 +26347,7 @@
         <v>21495</v>
       </c>
       <c r="B192" t="n">
-        <v>140462</v>
+        <v>171603</v>
       </c>
       <c r="C192" t="s">
         <v>1314</v>
@@ -26408,7 +26408,7 @@
         <v>21495</v>
       </c>
       <c r="B193" t="n">
-        <v>140463</v>
+        <v>171604</v>
       </c>
       <c r="C193" t="s">
         <v>1320</v>
@@ -26479,7 +26479,7 @@
         <v>21495</v>
       </c>
       <c r="B194" t="n">
-        <v>140464</v>
+        <v>171605</v>
       </c>
       <c r="C194" t="s">
         <v>1325</v>
@@ -26550,7 +26550,7 @@
         <v>21495</v>
       </c>
       <c r="B195" t="n">
-        <v>140465</v>
+        <v>171606</v>
       </c>
       <c r="C195" t="s">
         <v>1331</v>
@@ -26621,7 +26621,7 @@
         <v>21495</v>
       </c>
       <c r="B196" t="n">
-        <v>140466</v>
+        <v>171607</v>
       </c>
       <c r="C196" t="s">
         <v>1336</v>
@@ -26956,7 +26956,7 @@
         <v>21495</v>
       </c>
       <c r="B201" t="n">
-        <v>140467</v>
+        <v>171608</v>
       </c>
       <c r="C201" t="s">
         <v>1372</v>
@@ -27027,7 +27027,7 @@
         <v>21495</v>
       </c>
       <c r="B202" t="n">
-        <v>140468</v>
+        <v>171609</v>
       </c>
       <c r="C202" t="s">
         <v>1377</v>
@@ -27098,7 +27098,7 @@
         <v>21495</v>
       </c>
       <c r="B203" t="n">
-        <v>140469</v>
+        <v>171610</v>
       </c>
       <c r="C203" t="s">
         <v>1383</v>
@@ -27159,7 +27159,7 @@
         <v>21495</v>
       </c>
       <c r="B204" t="n">
-        <v>140470</v>
+        <v>171611</v>
       </c>
       <c r="C204" t="s">
         <v>1391</v>
@@ -27431,7 +27431,7 @@
         <v>21495</v>
       </c>
       <c r="B208" t="n">
-        <v>140471</v>
+        <v>171612</v>
       </c>
       <c r="C208" t="s">
         <v>1420</v>
@@ -27502,7 +27502,7 @@
         <v>21495</v>
       </c>
       <c r="B209" t="n">
-        <v>140472</v>
+        <v>171613</v>
       </c>
       <c r="C209" t="s">
         <v>1425</v>
@@ -27642,7 +27642,7 @@
         <v>21495</v>
       </c>
       <c r="B211" t="n">
-        <v>140473</v>
+        <v>171614</v>
       </c>
       <c r="C211" t="s">
         <v>1441</v>
@@ -27788,7 +27788,7 @@
         <v>21495</v>
       </c>
       <c r="B213" t="n">
-        <v>140474</v>
+        <v>171615</v>
       </c>
       <c r="C213" t="s">
         <v>1455</v>
@@ -27863,7 +27863,7 @@
         <v>21495</v>
       </c>
       <c r="B214" t="n">
-        <v>140475</v>
+        <v>171616</v>
       </c>
       <c r="C214" t="s">
         <v>1464</v>
@@ -27934,7 +27934,7 @@
         <v>21495</v>
       </c>
       <c r="B215" t="n">
-        <v>140476</v>
+        <v>171617</v>
       </c>
       <c r="C215" t="s">
         <v>1470</v>
@@ -28009,7 +28009,7 @@
         <v>21495</v>
       </c>
       <c r="B216" t="n">
-        <v>140477</v>
+        <v>171618</v>
       </c>
       <c r="C216" t="s">
         <v>1477</v>
@@ -28080,7 +28080,7 @@
         <v>21495</v>
       </c>
       <c r="B217" t="n">
-        <v>140478</v>
+        <v>171619</v>
       </c>
       <c r="C217" t="s">
         <v>1483</v>
@@ -28230,7 +28230,7 @@
         <v>21495</v>
       </c>
       <c r="B219" t="n">
-        <v>140479</v>
+        <v>171620</v>
       </c>
       <c r="C219" t="s">
         <v>1499</v>
@@ -28447,7 +28447,7 @@
         <v>21495</v>
       </c>
       <c r="B222" t="n">
-        <v>140480</v>
+        <v>171621</v>
       </c>
       <c r="C222" t="s">
         <v>1522</v>
@@ -28522,7 +28522,7 @@
         <v>21495</v>
       </c>
       <c r="B223" t="n">
-        <v>140481</v>
+        <v>171622</v>
       </c>
       <c r="C223" t="s">
         <v>1529</v>
@@ -28597,7 +28597,7 @@
         <v>21495</v>
       </c>
       <c r="B224" t="n">
-        <v>140482</v>
+        <v>171623</v>
       </c>
       <c r="C224" t="s">
         <v>1535</v>
@@ -28672,7 +28672,7 @@
         <v>21495</v>
       </c>
       <c r="B225" t="n">
-        <v>140483</v>
+        <v>171624</v>
       </c>
       <c r="C225" t="s">
         <v>1541</v>
@@ -28747,7 +28747,7 @@
         <v>21495</v>
       </c>
       <c r="B226" t="n">
-        <v>140484</v>
+        <v>171625</v>
       </c>
       <c r="C226" t="s">
         <v>1548</v>
@@ -28822,7 +28822,7 @@
         <v>21495</v>
       </c>
       <c r="B227" t="n">
-        <v>140485</v>
+        <v>171626</v>
       </c>
       <c r="C227" t="s">
         <v>1555</v>
@@ -29043,7 +29043,7 @@
         <v>21495</v>
       </c>
       <c r="B230" t="n">
-        <v>140486</v>
+        <v>171627</v>
       </c>
       <c r="C230" t="s">
         <v>1576</v>
@@ -29327,7 +29327,7 @@
         <v>21495</v>
       </c>
       <c r="B234" t="n">
-        <v>140487</v>
+        <v>171628</v>
       </c>
       <c r="C234" t="s">
         <v>1600</v>
@@ -29394,7 +29394,7 @@
         <v>21495</v>
       </c>
       <c r="B235" t="n">
-        <v>140488</v>
+        <v>171629</v>
       </c>
       <c r="C235" t="s">
         <v>1608</v>
@@ -29461,7 +29461,7 @@
         <v>21495</v>
       </c>
       <c r="B236" t="n">
-        <v>140489</v>
+        <v>171630</v>
       </c>
       <c r="C236" t="s">
         <v>1614</v>
@@ -29532,7 +29532,7 @@
         <v>21495</v>
       </c>
       <c r="B237" t="n">
-        <v>140490</v>
+        <v>171631</v>
       </c>
       <c r="C237" t="s">
         <v>1620</v>
@@ -29603,7 +29603,7 @@
         <v>21495</v>
       </c>
       <c r="B238" t="n">
-        <v>140491</v>
+        <v>171632</v>
       </c>
       <c r="C238" t="s">
         <v>1625</v>
@@ -29668,7 +29668,7 @@
         <v>21495</v>
       </c>
       <c r="B239" t="n">
-        <v>140492</v>
+        <v>171633</v>
       </c>
       <c r="C239" t="s">
         <v>1632</v>
@@ -29739,7 +29739,7 @@
         <v>21495</v>
       </c>
       <c r="B240" t="n">
-        <v>140493</v>
+        <v>171634</v>
       </c>
       <c r="C240" t="s">
         <v>1638</v>
@@ -30023,7 +30023,7 @@
         <v>21495</v>
       </c>
       <c r="B244" t="n">
-        <v>140494</v>
+        <v>171635</v>
       </c>
       <c r="C244" t="s">
         <v>1663</v>
@@ -30084,7 +30084,7 @@
         <v>21495</v>
       </c>
       <c r="B245" t="n">
-        <v>140495</v>
+        <v>171636</v>
       </c>
       <c r="C245" t="s">
         <v>1669</v>
@@ -30155,7 +30155,7 @@
         <v>21495</v>
       </c>
       <c r="B246" t="n">
-        <v>140496</v>
+        <v>171637</v>
       </c>
       <c r="C246" t="s">
         <v>1675</v>
@@ -30226,7 +30226,7 @@
         <v>21495</v>
       </c>
       <c r="B247" t="n">
-        <v>140497</v>
+        <v>171638</v>
       </c>
       <c r="C247" t="s">
         <v>1681</v>
@@ -30358,7 +30358,7 @@
         <v>21495</v>
       </c>
       <c r="B249" t="n">
-        <v>140498</v>
+        <v>171639</v>
       </c>
       <c r="C249" t="s">
         <v>1693</v>
@@ -30504,7 +30504,7 @@
         <v>21495</v>
       </c>
       <c r="B251" t="n">
-        <v>140499</v>
+        <v>171640</v>
       </c>
       <c r="C251" t="s">
         <v>1710</v>
@@ -30646,7 +30646,7 @@
         <v>21495</v>
       </c>
       <c r="B253" t="n">
-        <v>140500</v>
+        <v>171641</v>
       </c>
       <c r="C253" t="s">
         <v>1722</v>
@@ -30713,7 +30713,7 @@
         <v>21495</v>
       </c>
       <c r="B254" t="n">
-        <v>140501</v>
+        <v>171642</v>
       </c>
       <c r="C254" t="s">
         <v>1729</v>
@@ -30788,7 +30788,7 @@
         <v>21495</v>
       </c>
       <c r="B255" t="n">
-        <v>140502</v>
+        <v>171643</v>
       </c>
       <c r="C255" t="s">
         <v>1738</v>
@@ -30857,7 +30857,7 @@
         <v>21495</v>
       </c>
       <c r="B256" t="n">
-        <v>140503</v>
+        <v>171644</v>
       </c>
       <c r="C256" t="s">
         <v>1747</v>
@@ -30932,7 +30932,7 @@
         <v>21495</v>
       </c>
       <c r="B257" t="n">
-        <v>140504</v>
+        <v>171645</v>
       </c>
       <c r="C257" t="s">
         <v>1754</v>
@@ -31003,7 +31003,7 @@
         <v>21495</v>
       </c>
       <c r="B258" t="n">
-        <v>140505</v>
+        <v>171646</v>
       </c>
       <c r="C258" t="s">
         <v>1764</v>
@@ -31078,7 +31078,7 @@
         <v>21495</v>
       </c>
       <c r="B259" t="n">
-        <v>140506</v>
+        <v>171647</v>
       </c>
       <c r="C259" t="s">
         <v>1771</v>
@@ -31224,7 +31224,7 @@
         <v>21495</v>
       </c>
       <c r="B261" t="n">
-        <v>140507</v>
+        <v>171648</v>
       </c>
       <c r="C261" t="s">
         <v>1790</v>
@@ -31299,7 +31299,7 @@
         <v>21495</v>
       </c>
       <c r="B262" t="n">
-        <v>140508</v>
+        <v>171649</v>
       </c>
       <c r="C262" t="s">
         <v>1797</v>
@@ -31445,7 +31445,7 @@
         <v>21495</v>
       </c>
       <c r="B264" t="n">
-        <v>140509</v>
+        <v>171650</v>
       </c>
       <c r="C264" t="s">
         <v>1810</v>
@@ -31520,7 +31520,7 @@
         <v>21495</v>
       </c>
       <c r="B265" t="n">
-        <v>140510</v>
+        <v>171651</v>
       </c>
       <c r="C265" t="s">
         <v>1817</v>
@@ -31595,7 +31595,7 @@
         <v>21495</v>
       </c>
       <c r="B266" t="n">
-        <v>140511</v>
+        <v>171652</v>
       </c>
       <c r="C266" t="s">
         <v>1827</v>
@@ -31743,7 +31743,7 @@
         <v>21495</v>
       </c>
       <c r="B268" t="n">
-        <v>140512</v>
+        <v>171653</v>
       </c>
       <c r="C268" t="s">
         <v>1845</v>
@@ -31818,7 +31818,7 @@
         <v>21495</v>
       </c>
       <c r="B269" t="n">
-        <v>140513</v>
+        <v>171654</v>
       </c>
       <c r="C269" t="s">
         <v>1851</v>
@@ -32112,7 +32112,7 @@
         <v>21495</v>
       </c>
       <c r="B273" t="n">
-        <v>140514</v>
+        <v>171655</v>
       </c>
       <c r="C273" t="s">
         <v>1884</v>
@@ -32258,7 +32258,7 @@
         <v>21495</v>
       </c>
       <c r="B275" t="n">
-        <v>140515</v>
+        <v>171656</v>
       </c>
       <c r="C275" t="s">
         <v>1898</v>
@@ -32398,7 +32398,7 @@
         <v>21495</v>
       </c>
       <c r="B277" t="n">
-        <v>140516</v>
+        <v>171657</v>
       </c>
       <c r="C277" t="s">
         <v>1912</v>
@@ -32473,7 +32473,7 @@
         <v>21495</v>
       </c>
       <c r="B278" t="n">
-        <v>140517</v>
+        <v>171658</v>
       </c>
       <c r="C278" t="s">
         <v>1919</v>
@@ -32538,7 +32538,7 @@
         <v>21495</v>
       </c>
       <c r="B279" t="n">
-        <v>140518</v>
+        <v>171659</v>
       </c>
       <c r="C279" t="s">
         <v>1926</v>
@@ -32613,7 +32613,7 @@
         <v>21495</v>
       </c>
       <c r="B280" t="n">
-        <v>140519</v>
+        <v>171660</v>
       </c>
       <c r="C280" t="s">
         <v>1933</v>
@@ -32684,7 +32684,7 @@
         <v>21495</v>
       </c>
       <c r="B281" t="n">
-        <v>140520</v>
+        <v>171661</v>
       </c>
       <c r="C281" t="s">
         <v>1940</v>
@@ -32751,7 +32751,7 @@
         <v>21495</v>
       </c>
       <c r="B282" t="n">
-        <v>140521</v>
+        <v>171662</v>
       </c>
       <c r="C282" t="s">
         <v>1947</v>
@@ -32822,7 +32822,7 @@
         <v>21495</v>
       </c>
       <c r="B283" t="n">
-        <v>140522</v>
+        <v>171663</v>
       </c>
       <c r="C283" t="s">
         <v>1954</v>
@@ -32897,7 +32897,7 @@
         <v>21495</v>
       </c>
       <c r="B284" t="n">
-        <v>140523</v>
+        <v>171664</v>
       </c>
       <c r="C284" t="s">
         <v>1963</v>
@@ -32964,7 +32964,7 @@
         <v>21495</v>
       </c>
       <c r="B285" t="n">
-        <v>140524</v>
+        <v>171665</v>
       </c>
       <c r="C285" t="s">
         <v>1969</v>
@@ -33029,7 +33029,7 @@
         <v>21495</v>
       </c>
       <c r="B286" t="n">
-        <v>140525</v>
+        <v>171666</v>
       </c>
       <c r="C286" t="s">
         <v>1976</v>
@@ -33100,7 +33100,7 @@
         <v>21495</v>
       </c>
       <c r="B287" t="n">
-        <v>140526</v>
+        <v>171667</v>
       </c>
       <c r="C287" t="s">
         <v>1981</v>
@@ -33431,7 +33431,7 @@
         <v>21495</v>
       </c>
       <c r="B292" t="n">
-        <v>140527</v>
+        <v>171668</v>
       </c>
       <c r="C292" t="s">
         <v>2012</v>
@@ -33498,7 +33498,7 @@
         <v>21495</v>
       </c>
       <c r="B293" t="n">
-        <v>140528</v>
+        <v>171669</v>
       </c>
       <c r="C293" t="s">
         <v>2019</v>
@@ -33624,7 +33624,7 @@
         <v>21495</v>
       </c>
       <c r="B295" t="n">
-        <v>140529</v>
+        <v>171670</v>
       </c>
       <c r="C295" t="s">
         <v>2032</v>
@@ -33900,7 +33900,7 @@
         <v>21495</v>
       </c>
       <c r="B299" t="n">
-        <v>140530</v>
+        <v>171671</v>
       </c>
       <c r="C299" t="s">
         <v>2059</v>
@@ -34038,7 +34038,7 @@
         <v>21495</v>
       </c>
       <c r="B301" t="n">
-        <v>140531</v>
+        <v>171672</v>
       </c>
       <c r="C301" t="s">
         <v>2071</v>
@@ -34099,7 +34099,7 @@
         <v>21495</v>
       </c>
       <c r="B302" t="n">
-        <v>140532</v>
+        <v>171673</v>
       </c>
       <c r="C302" t="s">
         <v>2077</v>
@@ -34168,7 +34168,7 @@
         <v>21495</v>
       </c>
       <c r="B303" t="n">
-        <v>140533</v>
+        <v>171674</v>
       </c>
       <c r="C303" t="s">
         <v>2086</v>
@@ -34318,7 +34318,7 @@
         <v>21495</v>
       </c>
       <c r="B305" t="n">
-        <v>140534</v>
+        <v>171675</v>
       </c>
       <c r="C305" t="s">
         <v>2101</v>
@@ -34468,7 +34468,7 @@
         <v>21495</v>
       </c>
       <c r="B307" t="n">
-        <v>140535</v>
+        <v>171676</v>
       </c>
       <c r="C307" t="s">
         <v>2120</v>
@@ -34537,7 +34537,7 @@
         <v>21495</v>
       </c>
       <c r="B308" t="n">
-        <v>140536</v>
+        <v>171677</v>
       </c>
       <c r="C308" t="s">
         <v>2126</v>
@@ -34981,7 +34981,7 @@
         <v>21495</v>
       </c>
       <c r="B314" t="n">
-        <v>140537</v>
+        <v>171678</v>
       </c>
       <c r="C314" t="s">
         <v>2176</v>
@@ -35056,7 +35056,7 @@
         <v>21495</v>
       </c>
       <c r="B315" t="n">
-        <v>140538</v>
+        <v>171679</v>
       </c>
       <c r="C315" t="s">
         <v>2185</v>
@@ -35202,7 +35202,7 @@
         <v>21495</v>
       </c>
       <c r="B317" t="n">
-        <v>140539</v>
+        <v>171680</v>
       </c>
       <c r="C317" t="s">
         <v>2203</v>
@@ -35273,7 +35273,7 @@
         <v>21495</v>
       </c>
       <c r="B318" t="n">
-        <v>140540</v>
+        <v>171681</v>
       </c>
       <c r="C318" t="s">
         <v>2213</v>
@@ -35498,7 +35498,7 @@
         <v>21495</v>
       </c>
       <c r="B321" t="n">
-        <v>140541</v>
+        <v>171682</v>
       </c>
       <c r="C321" t="s">
         <v>2238</v>
@@ -35573,7 +35573,7 @@
         <v>21495</v>
       </c>
       <c r="B322" t="n">
-        <v>140542</v>
+        <v>171683</v>
       </c>
       <c r="C322" t="s">
         <v>2245</v>
@@ -35723,7 +35723,7 @@
         <v>21495</v>
       </c>
       <c r="B324" t="n">
-        <v>140543</v>
+        <v>171684</v>
       </c>
       <c r="C324" t="s">
         <v>2263</v>
@@ -35794,7 +35794,7 @@
         <v>21495</v>
       </c>
       <c r="B325" t="n">
-        <v>140544</v>
+        <v>171685</v>
       </c>
       <c r="C325" t="s">
         <v>2273</v>
@@ -35863,7 +35863,7 @@
         <v>21495</v>
       </c>
       <c r="B326" t="n">
-        <v>140545</v>
+        <v>171686</v>
       </c>
       <c r="C326" t="s">
         <v>2281</v>
@@ -36005,7 +36005,7 @@
         <v>21495</v>
       </c>
       <c r="B328" t="n">
-        <v>140546</v>
+        <v>171687</v>
       </c>
       <c r="C328" t="s">
         <v>2296</v>
@@ -36155,7 +36155,7 @@
         <v>21495</v>
       </c>
       <c r="B330" t="n">
-        <v>140547</v>
+        <v>171688</v>
       </c>
       <c r="C330" t="s">
         <v>2310</v>
@@ -36230,7 +36230,7 @@
         <v>21495</v>
       </c>
       <c r="B331" t="n">
-        <v>140548</v>
+        <v>171689</v>
       </c>
       <c r="C331" t="s">
         <v>2316</v>
@@ -36449,7 +36449,7 @@
         <v>21495</v>
       </c>
       <c r="B334" t="n">
-        <v>140549</v>
+        <v>171690</v>
       </c>
       <c r="C334" t="s">
         <v>2338</v>
@@ -36589,7 +36589,7 @@
         <v>21495</v>
       </c>
       <c r="B336" t="n">
-        <v>140550</v>
+        <v>171691</v>
       </c>
       <c r="C336" t="s">
         <v>2353</v>
@@ -36664,7 +36664,7 @@
         <v>21495</v>
       </c>
       <c r="B337" t="n">
-        <v>140354</v>
+        <v>140421</v>
       </c>
       <c r="C337" t="s">
         <v>411</v>
@@ -36733,7 +36733,7 @@
         <v>21495</v>
       </c>
       <c r="B338" t="n">
-        <v>140551</v>
+        <v>171692</v>
       </c>
       <c r="C338" t="s">
         <v>2368</v>
@@ -37157,7 +37157,7 @@
         <v>21495</v>
       </c>
       <c r="B344" t="n">
-        <v>140552</v>
+        <v>171693</v>
       </c>
       <c r="C344" t="s">
         <v>2410</v>
@@ -37289,7 +37289,7 @@
         <v>21495</v>
       </c>
       <c r="B346" t="n">
-        <v>140553</v>
+        <v>171694</v>
       </c>
       <c r="C346" t="s">
         <v>2422</v>
@@ -37425,7 +37425,7 @@
         <v>21495</v>
       </c>
       <c r="B348" t="n">
-        <v>140554</v>
+        <v>171695</v>
       </c>
       <c r="C348" t="s">
         <v>2434</v>
@@ -37496,7 +37496,7 @@
         <v>21495</v>
       </c>
       <c r="B349" t="n">
-        <v>140555</v>
+        <v>171696</v>
       </c>
       <c r="C349" t="s">
         <v>2440</v>
@@ -37766,7 +37766,7 @@
         <v>21495</v>
       </c>
       <c r="B353" t="n">
-        <v>140556</v>
+        <v>171697</v>
       </c>
       <c r="C353" t="s">
         <v>2463</v>
@@ -37837,7 +37837,7 @@
         <v>21495</v>
       </c>
       <c r="B354" t="n">
-        <v>140557</v>
+        <v>171698</v>
       </c>
       <c r="C354" t="s">
         <v>2468</v>
@@ -37902,7 +37902,7 @@
         <v>21495</v>
       </c>
       <c r="B355" t="n">
-        <v>140558</v>
+        <v>171699</v>
       </c>
       <c r="C355" t="s">
         <v>2475</v>
@@ -37967,7 +37967,7 @@
         <v>21495</v>
       </c>
       <c r="B356" t="n">
-        <v>140559</v>
+        <v>171700</v>
       </c>
       <c r="C356" t="s">
         <v>2481</v>
@@ -38328,7 +38328,7 @@
         <v>21495</v>
       </c>
       <c r="B361" t="n">
-        <v>140560</v>
+        <v>171701</v>
       </c>
       <c r="C361" t="s">
         <v>2518</v>
@@ -38403,7 +38403,7 @@
         <v>21495</v>
       </c>
       <c r="B362" t="n">
-        <v>140561</v>
+        <v>171702</v>
       </c>
       <c r="C362" t="s">
         <v>2525</v>
@@ -38478,7 +38478,7 @@
         <v>21495</v>
       </c>
       <c r="B363" t="n">
-        <v>140562</v>
+        <v>171703</v>
       </c>
       <c r="C363" t="s">
         <v>2534</v>
@@ -38620,7 +38620,7 @@
         <v>21495</v>
       </c>
       <c r="B365" t="n">
-        <v>140563</v>
+        <v>171704</v>
       </c>
       <c r="C365" t="s">
         <v>2549</v>
@@ -38762,7 +38762,7 @@
         <v>21495</v>
       </c>
       <c r="B367" t="n">
-        <v>140564</v>
+        <v>171705</v>
       </c>
       <c r="C367" t="s">
         <v>2561</v>
@@ -38823,7 +38823,7 @@
         <v>21495</v>
       </c>
       <c r="B368" t="n">
-        <v>140565</v>
+        <v>171706</v>
       </c>
       <c r="C368" t="s">
         <v>2567</v>
@@ -38894,7 +38894,7 @@
         <v>21495</v>
       </c>
       <c r="B369" t="n">
-        <v>140566</v>
+        <v>171707</v>
       </c>
       <c r="C369" t="s">
         <v>2574</v>
@@ -39174,7 +39174,7 @@
         <v>21495</v>
       </c>
       <c r="B373" t="n">
-        <v>140567</v>
+        <v>171708</v>
       </c>
       <c r="C373" t="s">
         <v>2601</v>
@@ -39245,7 +39245,7 @@
         <v>21495</v>
       </c>
       <c r="B374" t="n">
-        <v>140568</v>
+        <v>171709</v>
       </c>
       <c r="C374" t="s">
         <v>2606</v>
@@ -39529,7 +39529,7 @@
         <v>21495</v>
       </c>
       <c r="B378" t="n">
-        <v>140569</v>
+        <v>171710</v>
       </c>
       <c r="C378" t="s">
         <v>2630</v>
@@ -39600,7 +39600,7 @@
         <v>21495</v>
       </c>
       <c r="B379" t="n">
-        <v>140570</v>
+        <v>171711</v>
       </c>
       <c r="C379" t="s">
         <v>2636</v>
@@ -39742,7 +39742,7 @@
         <v>21495</v>
       </c>
       <c r="B381" t="n">
-        <v>140571</v>
+        <v>171712</v>
       </c>
       <c r="C381" t="s">
         <v>2647</v>
@@ -39813,7 +39813,7 @@
         <v>21495</v>
       </c>
       <c r="B382" t="n">
-        <v>140572</v>
+        <v>171713</v>
       </c>
       <c r="C382" t="s">
         <v>2653</v>
@@ -39884,7 +39884,7 @@
         <v>21495</v>
       </c>
       <c r="B383" t="n">
-        <v>140573</v>
+        <v>171714</v>
       </c>
       <c r="C383" t="s">
         <v>2659</v>
@@ -39955,7 +39955,7 @@
         <v>21495</v>
       </c>
       <c r="B384" t="n">
-        <v>140574</v>
+        <v>171715</v>
       </c>
       <c r="C384" t="s">
         <v>2668</v>
@@ -40026,7 +40026,7 @@
         <v>21495</v>
       </c>
       <c r="B385" t="n">
-        <v>140575</v>
+        <v>171716</v>
       </c>
       <c r="C385" t="s">
         <v>2673</v>
@@ -40101,7 +40101,7 @@
         <v>21495</v>
       </c>
       <c r="B386" t="n">
-        <v>140576</v>
+        <v>171717</v>
       </c>
       <c r="C386" t="s">
         <v>2680</v>
@@ -40176,7 +40176,7 @@
         <v>21495</v>
       </c>
       <c r="B387" t="n">
-        <v>140577</v>
+        <v>171718</v>
       </c>
       <c r="C387" t="s">
         <v>2687</v>
@@ -40251,7 +40251,7 @@
         <v>21495</v>
       </c>
       <c r="B388" t="n">
-        <v>140578</v>
+        <v>171719</v>
       </c>
       <c r="C388" t="s">
         <v>2694</v>
@@ -40326,7 +40326,7 @@
         <v>21495</v>
       </c>
       <c r="B389" t="n">
-        <v>140579</v>
+        <v>171720</v>
       </c>
       <c r="C389" t="s">
         <v>2701</v>
@@ -40476,7 +40476,7 @@
         <v>21495</v>
       </c>
       <c r="B391" t="n">
-        <v>140580</v>
+        <v>171721</v>
       </c>
       <c r="C391" t="s">
         <v>2715</v>
@@ -40551,7 +40551,7 @@
         <v>21495</v>
       </c>
       <c r="B392" t="n">
-        <v>140581</v>
+        <v>171722</v>
       </c>
       <c r="C392" t="s">
         <v>2723</v>
@@ -41001,7 +41001,7 @@
         <v>21495</v>
       </c>
       <c r="B398" t="n">
-        <v>140582</v>
+        <v>171723</v>
       </c>
       <c r="C398" t="s">
         <v>2769</v>
@@ -41601,7 +41601,7 @@
         <v>21495</v>
       </c>
       <c r="B406" t="n">
-        <v>140583</v>
+        <v>171724</v>
       </c>
       <c r="C406" t="s">
         <v>2828</v>
@@ -41676,7 +41676,7 @@
         <v>21495</v>
       </c>
       <c r="B407" t="n">
-        <v>140584</v>
+        <v>171725</v>
       </c>
       <c r="C407" t="s">
         <v>2837</v>
@@ -41751,7 +41751,7 @@
         <v>21495</v>
       </c>
       <c r="B408" t="n">
-        <v>140585</v>
+        <v>171726</v>
       </c>
       <c r="C408" t="s">
         <v>2845</v>
@@ -41826,7 +41826,7 @@
         <v>21495</v>
       </c>
       <c r="B409" t="n">
-        <v>140586</v>
+        <v>171727</v>
       </c>
       <c r="C409" t="s">
         <v>2855</v>
@@ -41901,7 +41901,7 @@
         <v>21495</v>
       </c>
       <c r="B410" t="n">
-        <v>140587</v>
+        <v>171728</v>
       </c>
       <c r="C410" t="s">
         <v>2862</v>
@@ -41976,7 +41976,7 @@
         <v>21495</v>
       </c>
       <c r="B411" t="n">
-        <v>140588</v>
+        <v>171729</v>
       </c>
       <c r="C411" t="s">
         <v>2869</v>
@@ -42051,7 +42051,7 @@
         <v>21495</v>
       </c>
       <c r="B412" t="n">
-        <v>140589</v>
+        <v>171730</v>
       </c>
       <c r="C412" t="s">
         <v>2876</v>
@@ -42276,7 +42276,7 @@
         <v>21495</v>
       </c>
       <c r="B415" t="n">
-        <v>140590</v>
+        <v>171731</v>
       </c>
       <c r="C415" t="s">
         <v>2895</v>
@@ -42651,7 +42651,7 @@
         <v>21495</v>
       </c>
       <c r="B420" t="n">
-        <v>140591</v>
+        <v>171732</v>
       </c>
       <c r="C420" t="s">
         <v>2934</v>
@@ -42726,7 +42726,7 @@
         <v>21495</v>
       </c>
       <c r="B421" t="n">
-        <v>140592</v>
+        <v>171733</v>
       </c>
       <c r="C421" t="s">
         <v>2940</v>
@@ -42801,7 +42801,7 @@
         <v>21495</v>
       </c>
       <c r="B422" t="n">
-        <v>140593</v>
+        <v>171734</v>
       </c>
       <c r="C422" t="s">
         <v>2947</v>
@@ -42951,7 +42951,7 @@
         <v>21495</v>
       </c>
       <c r="B424" t="n">
-        <v>140594</v>
+        <v>171735</v>
       </c>
       <c r="C424" t="s">
         <v>2961</v>
@@ -43026,7 +43026,7 @@
         <v>21495</v>
       </c>
       <c r="B425" t="n">
-        <v>140595</v>
+        <v>171736</v>
       </c>
       <c r="C425" t="s">
         <v>2968</v>
@@ -43101,7 +43101,7 @@
         <v>21495</v>
       </c>
       <c r="B426" t="n">
-        <v>140596</v>
+        <v>171737</v>
       </c>
       <c r="C426" t="s">
         <v>2975</v>
@@ -43176,7 +43176,7 @@
         <v>21495</v>
       </c>
       <c r="B427" t="n">
-        <v>140597</v>
+        <v>171738</v>
       </c>
       <c r="C427" t="s">
         <v>2983</v>
@@ -43476,7 +43476,7 @@
         <v>21495</v>
       </c>
       <c r="B431" t="n">
-        <v>140598</v>
+        <v>171739</v>
       </c>
       <c r="C431" t="s">
         <v>3014</v>
@@ -43626,7 +43626,7 @@
         <v>21495</v>
       </c>
       <c r="B433" t="n">
-        <v>140599</v>
+        <v>171740</v>
       </c>
       <c r="C433" t="s">
         <v>3032</v>
@@ -43926,7 +43926,7 @@
         <v>21495</v>
       </c>
       <c r="B437" t="n">
-        <v>140600</v>
+        <v>171741</v>
       </c>
       <c r="C437" t="s">
         <v>3061</v>
@@ -44001,7 +44001,7 @@
         <v>21495</v>
       </c>
       <c r="B438" t="n">
-        <v>140601</v>
+        <v>171742</v>
       </c>
       <c r="C438" t="s">
         <v>3071</v>
@@ -44076,7 +44076,7 @@
         <v>21495</v>
       </c>
       <c r="B439" t="n">
-        <v>140602</v>
+        <v>171743</v>
       </c>
       <c r="C439" t="s">
         <v>3078</v>
@@ -44141,7 +44141,7 @@
         <v>21495</v>
       </c>
       <c r="B440" t="n">
-        <v>140603</v>
+        <v>171744</v>
       </c>
       <c r="C440" t="s">
         <v>3087</v>
@@ -44289,7 +44289,7 @@
         <v>21495</v>
       </c>
       <c r="B442" t="n">
-        <v>140604</v>
+        <v>171745</v>
       </c>
       <c r="C442" t="s">
         <v>3102</v>
@@ -44364,7 +44364,7 @@
         <v>21495</v>
       </c>
       <c r="B443" t="n">
-        <v>140605</v>
+        <v>171746</v>
       </c>
       <c r="C443" t="s">
         <v>3109</v>
@@ -44439,7 +44439,7 @@
         <v>21495</v>
       </c>
       <c r="B444" t="n">
-        <v>140606</v>
+        <v>171747</v>
       </c>
       <c r="C444" t="s">
         <v>3118</v>
@@ -44510,7 +44510,7 @@
         <v>21495</v>
       </c>
       <c r="B445" t="n">
-        <v>140607</v>
+        <v>171748</v>
       </c>
       <c r="C445" t="s">
         <v>3125</v>
@@ -44585,7 +44585,7 @@
         <v>21495</v>
       </c>
       <c r="B446" t="n">
-        <v>140608</v>
+        <v>171749</v>
       </c>
       <c r="C446" t="s">
         <v>3134</v>
@@ -44660,7 +44660,7 @@
         <v>21495</v>
       </c>
       <c r="B447" t="n">
-        <v>140609</v>
+        <v>171750</v>
       </c>
       <c r="C447" t="s">
         <v>3143</v>
@@ -45102,7 +45102,7 @@
         <v>21495</v>
       </c>
       <c r="B453" t="n">
-        <v>140610</v>
+        <v>171751</v>
       </c>
       <c r="C453" t="s">
         <v>3186</v>
@@ -45177,7 +45177,7 @@
         <v>21495</v>
       </c>
       <c r="B454" t="n">
-        <v>140611</v>
+        <v>171752</v>
       </c>
       <c r="C454" t="s">
         <v>3193</v>
@@ -45252,7 +45252,7 @@
         <v>21495</v>
       </c>
       <c r="B455" t="n">
-        <v>140612</v>
+        <v>171753</v>
       </c>
       <c r="C455" t="s">
         <v>3202</v>
@@ -45327,7 +45327,7 @@
         <v>21495</v>
       </c>
       <c r="B456" t="n">
-        <v>140613</v>
+        <v>171754</v>
       </c>
       <c r="C456" t="s">
         <v>3209</v>
@@ -45477,7 +45477,7 @@
         <v>21495</v>
       </c>
       <c r="B458" t="n">
-        <v>140614</v>
+        <v>171755</v>
       </c>
       <c r="C458" t="s">
         <v>3222</v>
@@ -45552,7 +45552,7 @@
         <v>21495</v>
       </c>
       <c r="B459" t="n">
-        <v>140615</v>
+        <v>171756</v>
       </c>
       <c r="C459" t="s">
         <v>3230</v>
@@ -45698,7 +45698,7 @@
         <v>21495</v>
       </c>
       <c r="B461" t="n">
-        <v>140616</v>
+        <v>171757</v>
       </c>
       <c r="C461" t="s">
         <v>3246</v>
@@ -45848,7 +45848,7 @@
         <v>21495</v>
       </c>
       <c r="B463" t="n">
-        <v>140617</v>
+        <v>171758</v>
       </c>
       <c r="C463" t="s">
         <v>3260</v>
@@ -45923,7 +45923,7 @@
         <v>21495</v>
       </c>
       <c r="B464" t="n">
-        <v>140618</v>
+        <v>171759</v>
       </c>
       <c r="C464" t="s">
         <v>3267</v>
@@ -46073,7 +46073,7 @@
         <v>21495</v>
       </c>
       <c r="B466" t="n">
-        <v>140619</v>
+        <v>171760</v>
       </c>
       <c r="C466" t="s">
         <v>3284</v>
@@ -46223,7 +46223,7 @@
         <v>21495</v>
       </c>
       <c r="B468" t="n">
-        <v>140620</v>
+        <v>171761</v>
       </c>
       <c r="C468" t="s">
         <v>3299</v>
@@ -46442,7 +46442,7 @@
         <v>21495</v>
       </c>
       <c r="B471" t="n">
-        <v>140621</v>
+        <v>171762</v>
       </c>
       <c r="C471" t="s">
         <v>3323</v>
@@ -46588,7 +46588,7 @@
         <v>21495</v>
       </c>
       <c r="B473" t="n">
-        <v>140622</v>
+        <v>171763</v>
       </c>
       <c r="C473" t="s">
         <v>3339</v>
@@ -46663,7 +46663,7 @@
         <v>21495</v>
       </c>
       <c r="B474" t="n">
-        <v>140623</v>
+        <v>171764</v>
       </c>
       <c r="C474" t="s">
         <v>3348</v>
@@ -46738,7 +46738,7 @@
         <v>21495</v>
       </c>
       <c r="B475" t="n">
-        <v>140624</v>
+        <v>171765</v>
       </c>
       <c r="C475" t="s">
         <v>3358</v>
@@ -46888,7 +46888,7 @@
         <v>21495</v>
       </c>
       <c r="B477" t="n">
-        <v>140625</v>
+        <v>171766</v>
       </c>
       <c r="C477" t="s">
         <v>3375</v>
@@ -46963,7 +46963,7 @@
         <v>21495</v>
       </c>
       <c r="B478" t="n">
-        <v>140626</v>
+        <v>171767</v>
       </c>
       <c r="C478" t="s">
         <v>3381</v>
@@ -47038,7 +47038,7 @@
         <v>21495</v>
       </c>
       <c r="B479" t="n">
-        <v>140627</v>
+        <v>171768</v>
       </c>
       <c r="C479" t="s">
         <v>3390</v>
@@ -47109,7 +47109,7 @@
         <v>21495</v>
       </c>
       <c r="B480" t="n">
-        <v>140628</v>
+        <v>171769</v>
       </c>
       <c r="C480" t="s">
         <v>3396</v>
@@ -47180,7 +47180,7 @@
         <v>21495</v>
       </c>
       <c r="B481" t="n">
-        <v>140629</v>
+        <v>171770</v>
       </c>
       <c r="C481" t="s">
         <v>3402</v>
@@ -47312,7 +47312,7 @@
         <v>21495</v>
       </c>
       <c r="B483" t="n">
-        <v>140630</v>
+        <v>171771</v>
       </c>
       <c r="C483" t="s">
         <v>3415</v>
@@ -47383,7 +47383,7 @@
         <v>21495</v>
       </c>
       <c r="B484" t="n">
-        <v>140631</v>
+        <v>171772</v>
       </c>
       <c r="C484" t="s">
         <v>3423</v>
@@ -47454,7 +47454,7 @@
         <v>21495</v>
       </c>
       <c r="B485" t="n">
-        <v>140632</v>
+        <v>171773</v>
       </c>
       <c r="C485" t="s">
         <v>3432</v>
@@ -47596,7 +47596,7 @@
         <v>21495</v>
       </c>
       <c r="B487" t="n">
-        <v>140633</v>
+        <v>171774</v>
       </c>
       <c r="C487" t="s">
         <v>3446</v>
@@ -47671,7 +47671,7 @@
         <v>21495</v>
       </c>
       <c r="B488" t="n">
-        <v>140634</v>
+        <v>171775</v>
       </c>
       <c r="C488" t="s">
         <v>3456</v>
@@ -47742,7 +47742,7 @@
         <v>21495</v>
       </c>
       <c r="B489" t="n">
-        <v>140635</v>
+        <v>171776</v>
       </c>
       <c r="C489" t="s">
         <v>3463</v>
@@ -47813,7 +47813,7 @@
         <v>21495</v>
       </c>
       <c r="B490" t="n">
-        <v>140636</v>
+        <v>171777</v>
       </c>
       <c r="C490" t="s">
         <v>3472</v>
@@ -47888,7 +47888,7 @@
         <v>21495</v>
       </c>
       <c r="B491" t="n">
-        <v>140637</v>
+        <v>171778</v>
       </c>
       <c r="C491" t="s">
         <v>3481</v>
@@ -48030,7 +48030,7 @@
         <v>21495</v>
       </c>
       <c r="B493" t="n">
-        <v>140638</v>
+        <v>171779</v>
       </c>
       <c r="C493" t="s">
         <v>3496</v>
@@ -48091,7 +48091,7 @@
         <v>21495</v>
       </c>
       <c r="B494" t="n">
-        <v>140639</v>
+        <v>171780</v>
       </c>
       <c r="C494" t="s">
         <v>3501</v>
@@ -48162,7 +48162,7 @@
         <v>21495</v>
       </c>
       <c r="B495" t="n">
-        <v>140640</v>
+        <v>171781</v>
       </c>
       <c r="C495" t="s">
         <v>3508</v>
@@ -48517,7 +48517,7 @@
         <v>21495</v>
       </c>
       <c r="B500" t="n">
-        <v>140641</v>
+        <v>171782</v>
       </c>
       <c r="C500" t="s">
         <v>3540</v>
@@ -48732,7 +48732,7 @@
         <v>21495</v>
       </c>
       <c r="B503" t="n">
-        <v>140642</v>
+        <v>171783</v>
       </c>
       <c r="C503" t="s">
         <v>3563</v>
@@ -48803,7 +48803,7 @@
         <v>21495</v>
       </c>
       <c r="B504" t="n">
-        <v>140643</v>
+        <v>171784</v>
       </c>
       <c r="C504" t="s">
         <v>3570</v>
@@ -48874,7 +48874,7 @@
         <v>21495</v>
       </c>
       <c r="B505" t="n">
-        <v>140644</v>
+        <v>171785</v>
       </c>
       <c r="C505" t="s">
         <v>3576</v>
@@ -48945,7 +48945,7 @@
         <v>21495</v>
       </c>
       <c r="B506" t="n">
-        <v>140645</v>
+        <v>171786</v>
       </c>
       <c r="C506" t="s">
         <v>3583</v>
@@ -49016,7 +49016,7 @@
         <v>21495</v>
       </c>
       <c r="B507" t="n">
-        <v>140646</v>
+        <v>171787</v>
       </c>
       <c r="C507" t="s">
         <v>3589</v>
@@ -49148,7 +49148,7 @@
         <v>21495</v>
       </c>
       <c r="B509" t="n">
-        <v>140647</v>
+        <v>171788</v>
       </c>
       <c r="C509" t="s">
         <v>3602</v>
@@ -49219,7 +49219,7 @@
         <v>21495</v>
       </c>
       <c r="B510" t="n">
-        <v>140648</v>
+        <v>171789</v>
       </c>
       <c r="C510" t="s">
         <v>3610</v>
@@ -49290,7 +49290,7 @@
         <v>21495</v>
       </c>
       <c r="B511" t="n">
-        <v>140649</v>
+        <v>171790</v>
       </c>
       <c r="C511" t="s">
         <v>3617</v>
@@ -49361,7 +49361,7 @@
         <v>21495</v>
       </c>
       <c r="B512" t="n">
-        <v>140650</v>
+        <v>171791</v>
       </c>
       <c r="C512" t="s">
         <v>3623</v>
@@ -49432,7 +49432,7 @@
         <v>21495</v>
       </c>
       <c r="B513" t="n">
-        <v>140651</v>
+        <v>171792</v>
       </c>
       <c r="C513" t="s">
         <v>3630</v>
@@ -49503,7 +49503,7 @@
         <v>21495</v>
       </c>
       <c r="B514" t="n">
-        <v>140652</v>
+        <v>171793</v>
       </c>
       <c r="C514" t="s">
         <v>3637</v>
@@ -49574,7 +49574,7 @@
         <v>21495</v>
       </c>
       <c r="B515" t="n">
-        <v>140653</v>
+        <v>171794</v>
       </c>
       <c r="C515" t="s">
         <v>3643</v>
@@ -49645,7 +49645,7 @@
         <v>21495</v>
       </c>
       <c r="B516" t="n">
-        <v>140654</v>
+        <v>171795</v>
       </c>
       <c r="C516" t="s">
         <v>3652</v>
@@ -49716,7 +49716,7 @@
         <v>21495</v>
       </c>
       <c r="B517" t="n">
-        <v>140655</v>
+        <v>171796</v>
       </c>
       <c r="C517" t="s">
         <v>3659</v>
@@ -49862,7 +49862,7 @@
         <v>21495</v>
       </c>
       <c r="B519" t="n">
-        <v>140656</v>
+        <v>171797</v>
       </c>
       <c r="C519" t="s">
         <v>3672</v>
@@ -50075,7 +50075,7 @@
         <v>21495</v>
       </c>
       <c r="B522" t="n">
-        <v>140657</v>
+        <v>171798</v>
       </c>
       <c r="C522" t="s">
         <v>3692</v>
@@ -50146,7 +50146,7 @@
         <v>21495</v>
       </c>
       <c r="B523" t="n">
-        <v>140658</v>
+        <v>171799</v>
       </c>
       <c r="C523" t="s">
         <v>3699</v>
@@ -50217,7 +50217,7 @@
         <v>21495</v>
       </c>
       <c r="B524" t="n">
-        <v>140659</v>
+        <v>171800</v>
       </c>
       <c r="C524" t="s">
         <v>3705</v>
@@ -50353,7 +50353,7 @@
         <v>21495</v>
       </c>
       <c r="B526" t="n">
-        <v>140660</v>
+        <v>171801</v>
       </c>
       <c r="C526" t="s">
         <v>3721</v>
@@ -50424,7 +50424,7 @@
         <v>21495</v>
       </c>
       <c r="B527" t="n">
-        <v>140661</v>
+        <v>171802</v>
       </c>
       <c r="C527" t="s">
         <v>3727</v>
@@ -50495,7 +50495,7 @@
         <v>21495</v>
       </c>
       <c r="B528" t="n">
-        <v>140662</v>
+        <v>171803</v>
       </c>
       <c r="C528" t="s">
         <v>3735</v>
@@ -50633,7 +50633,7 @@
         <v>21495</v>
       </c>
       <c r="B530" t="n">
-        <v>140663</v>
+        <v>171804</v>
       </c>
       <c r="C530" t="s">
         <v>3749</v>
@@ -50704,7 +50704,7 @@
         <v>21495</v>
       </c>
       <c r="B531" t="n">
-        <v>140664</v>
+        <v>171805</v>
       </c>
       <c r="C531" t="s">
         <v>3755</v>
@@ -50775,7 +50775,7 @@
         <v>21495</v>
       </c>
       <c r="B532" t="n">
-        <v>140665</v>
+        <v>171806</v>
       </c>
       <c r="C532" t="s">
         <v>3761</v>
@@ -50846,7 +50846,7 @@
         <v>21495</v>
       </c>
       <c r="B533" t="n">
-        <v>140666</v>
+        <v>171807</v>
       </c>
       <c r="C533" t="s">
         <v>3768</v>
@@ -50917,7 +50917,7 @@
         <v>21495</v>
       </c>
       <c r="B534" t="n">
-        <v>140667</v>
+        <v>171808</v>
       </c>
       <c r="C534" t="s">
         <v>3776</v>
@@ -50988,7 +50988,7 @@
         <v>21495</v>
       </c>
       <c r="B535" t="n">
-        <v>140668</v>
+        <v>171809</v>
       </c>
       <c r="C535" t="s">
         <v>3783</v>
@@ -51059,7 +51059,7 @@
         <v>21495</v>
       </c>
       <c r="B536" t="n">
-        <v>140669</v>
+        <v>171810</v>
       </c>
       <c r="C536" t="s">
         <v>3790</v>
@@ -51126,7 +51126,7 @@
         <v>21495</v>
       </c>
       <c r="B537" t="n">
-        <v>140670</v>
+        <v>171811</v>
       </c>
       <c r="C537" t="s">
         <v>3797</v>
@@ -51197,7 +51197,7 @@
         <v>21495</v>
       </c>
       <c r="B538" t="n">
-        <v>140671</v>
+        <v>171812</v>
       </c>
       <c r="C538" t="s">
         <v>3806</v>
@@ -51264,7 +51264,7 @@
         <v>21495</v>
       </c>
       <c r="B539" t="n">
-        <v>140672</v>
+        <v>171813</v>
       </c>
       <c r="C539" t="s">
         <v>3813</v>
@@ -51331,7 +51331,7 @@
         <v>21495</v>
       </c>
       <c r="B540" t="n">
-        <v>140673</v>
+        <v>171814</v>
       </c>
       <c r="C540" t="s">
         <v>3819</v>
@@ -51398,7 +51398,7 @@
         <v>21495</v>
       </c>
       <c r="B541" t="n">
-        <v>140674</v>
+        <v>171815</v>
       </c>
       <c r="C541" t="s">
         <v>3824</v>
@@ -51536,7 +51536,7 @@
         <v>21495</v>
       </c>
       <c r="B543" t="n">
-        <v>140675</v>
+        <v>171816</v>
       </c>
       <c r="C543" t="s">
         <v>3839</v>
@@ -51607,7 +51607,7 @@
         <v>21495</v>
       </c>
       <c r="B544" t="n">
-        <v>140676</v>
+        <v>171817</v>
       </c>
       <c r="C544" t="s">
         <v>3847</v>
@@ -51682,7 +51682,7 @@
         <v>21495</v>
       </c>
       <c r="B545" t="n">
-        <v>140677</v>
+        <v>171818</v>
       </c>
       <c r="C545" t="s">
         <v>3855</v>
@@ -51753,7 +51753,7 @@
         <v>21495</v>
       </c>
       <c r="B546" t="n">
-        <v>140678</v>
+        <v>140504</v>
       </c>
       <c r="C546" t="s">
         <v>3863</v>
@@ -51824,7 +51824,7 @@
         <v>21495</v>
       </c>
       <c r="B547" t="n">
-        <v>140679</v>
+        <v>171819</v>
       </c>
       <c r="C547" t="s">
         <v>3869</v>
@@ -51895,7 +51895,7 @@
         <v>21495</v>
       </c>
       <c r="B548" t="n">
-        <v>140680</v>
+        <v>171820</v>
       </c>
       <c r="C548" t="s">
         <v>3876</v>
@@ -51970,7 +51970,7 @@
         <v>21495</v>
       </c>
       <c r="B549" t="n">
-        <v>140681</v>
+        <v>171821</v>
       </c>
       <c r="C549" t="s">
         <v>3886</v>
@@ -52045,7 +52045,7 @@
         <v>21495</v>
       </c>
       <c r="B550" t="n">
-        <v>140682</v>
+        <v>171822</v>
       </c>
       <c r="C550" t="s">
         <v>3896</v>
@@ -52110,7 +52110,7 @@
         <v>21495</v>
       </c>
       <c r="B551" t="n">
-        <v>140683</v>
+        <v>171823</v>
       </c>
       <c r="C551" t="s">
         <v>3903</v>
@@ -52252,7 +52252,7 @@
         <v>21495</v>
       </c>
       <c r="B553" t="n">
-        <v>140677</v>
+        <v>140504</v>
       </c>
       <c r="C553" t="s">
         <v>3863</v>
@@ -52323,7 +52323,7 @@
         <v>21495</v>
       </c>
       <c r="B554" t="n">
-        <v>140684</v>
+        <v>171824</v>
       </c>
       <c r="C554" t="s">
         <v>3925</v>
@@ -52398,7 +52398,7 @@
         <v>21495</v>
       </c>
       <c r="B555" t="n">
-        <v>140685</v>
+        <v>171825</v>
       </c>
       <c r="C555" t="s">
         <v>3935</v>
@@ -52463,7 +52463,7 @@
         <v>21495</v>
       </c>
       <c r="B556" t="n">
-        <v>140686</v>
+        <v>171826</v>
       </c>
       <c r="C556" t="s">
         <v>3945</v>
@@ -52530,7 +52530,7 @@
         <v>21495</v>
       </c>
       <c r="B557" t="n">
-        <v>140687</v>
+        <v>171827</v>
       </c>
       <c r="C557" t="s">
         <v>3952</v>
@@ -52672,7 +52672,7 @@
         <v>21495</v>
       </c>
       <c r="B559" t="n">
-        <v>140688</v>
+        <v>171828</v>
       </c>
       <c r="C559" t="s">
         <v>3965</v>
@@ -52743,7 +52743,7 @@
         <v>21495</v>
       </c>
       <c r="B560" t="n">
-        <v>140689</v>
+        <v>171829</v>
       </c>
       <c r="C560" t="s">
         <v>3973</v>
@@ -52814,7 +52814,7 @@
         <v>21495</v>
       </c>
       <c r="B561" t="n">
-        <v>140690</v>
+        <v>171830</v>
       </c>
       <c r="C561" t="s">
         <v>3980</v>
@@ -52885,7 +52885,7 @@
         <v>21495</v>
       </c>
       <c r="B562" t="n">
-        <v>140691</v>
+        <v>171831</v>
       </c>
       <c r="C562" t="s">
         <v>3986</v>
@@ -52952,7 +52952,7 @@
         <v>21495</v>
       </c>
       <c r="B563" t="n">
-        <v>140692</v>
+        <v>171832</v>
       </c>
       <c r="C563" t="s">
         <v>3992</v>
@@ -53009,7 +53009,7 @@
         <v>21495</v>
       </c>
       <c r="B564" t="n">
-        <v>140693</v>
+        <v>171833</v>
       </c>
       <c r="C564" t="s">
         <v>3999</v>
@@ -53080,7 +53080,7 @@
         <v>21495</v>
       </c>
       <c r="B565" t="n">
-        <v>140694</v>
+        <v>171834</v>
       </c>
       <c r="C565" t="s">
         <v>4007</v>
@@ -53222,7 +53222,7 @@
         <v>21495</v>
       </c>
       <c r="B567" t="n">
-        <v>140695</v>
+        <v>171835</v>
       </c>
       <c r="C567" t="s">
         <v>4021</v>
@@ -53364,7 +53364,7 @@
         <v>21495</v>
       </c>
       <c r="B569" t="n">
-        <v>140696</v>
+        <v>171836</v>
       </c>
       <c r="C569" t="s">
         <v>4037</v>
@@ -53435,7 +53435,7 @@
         <v>21495</v>
       </c>
       <c r="B570" t="n">
-        <v>140697</v>
+        <v>171837</v>
       </c>
       <c r="C570" t="s">
         <v>4045</v>
@@ -53506,7 +53506,7 @@
         <v>21495</v>
       </c>
       <c r="B571" t="n">
-        <v>140698</v>
+        <v>171838</v>
       </c>
       <c r="C571" t="s">
         <v>4051</v>
@@ -53577,7 +53577,7 @@
         <v>21495</v>
       </c>
       <c r="B572" t="n">
-        <v>140699</v>
+        <v>171839</v>
       </c>
       <c r="C572" t="s">
         <v>4058</v>
@@ -53646,7 +53646,7 @@
         <v>21495</v>
       </c>
       <c r="B573" t="n">
-        <v>140700</v>
+        <v>171840</v>
       </c>
       <c r="C573" t="s">
         <v>4066</v>
@@ -53703,7 +53703,7 @@
         <v>21495</v>
       </c>
       <c r="B574" t="n">
-        <v>140701</v>
+        <v>171841</v>
       </c>
       <c r="C574" t="s">
         <v>4073</v>
@@ -53768,7 +53768,7 @@
         <v>21495</v>
       </c>
       <c r="B575" t="n">
-        <v>140702</v>
+        <v>171842</v>
       </c>
       <c r="C575" t="s">
         <v>4079</v>
@@ -53835,7 +53835,7 @@
         <v>21495</v>
       </c>
       <c r="B576" t="n">
-        <v>140703</v>
+        <v>171843</v>
       </c>
       <c r="C576" t="s">
         <v>4085</v>
@@ -53892,7 +53892,7 @@
         <v>21495</v>
       </c>
       <c r="B577" t="n">
-        <v>140704</v>
+        <v>171844</v>
       </c>
       <c r="C577" t="s">
         <v>4091</v>
@@ -54071,7 +54071,7 @@
         <v>21495</v>
       </c>
       <c r="B580" t="n">
-        <v>140705</v>
+        <v>171845</v>
       </c>
       <c r="C580" t="s">
         <v>4110</v>
